--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Avg.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.858883216167294E-11</v>
+        <v>3.29310787725013E-05</v>
       </c>
       <c r="D2">
         <v>0.1227904708758973</v>
@@ -431,7 +431,7 @@
         <v>2.950586604829724E-12</v>
       </c>
       <c r="C3">
-        <v>5.025079404054473E-06</v>
+        <v>0.001593617288509926</v>
       </c>
       <c r="D3">
         <v>0.1070698633371315</v>
@@ -448,7 +448,7 @@
         <v>4.6059516217121E-14</v>
       </c>
       <c r="C4">
-        <v>9.977804045657202E-07</v>
+        <v>0.001441307452903767</v>
       </c>
       <c r="D4">
         <v>0.08750568804094572</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.627657735623706E-20</v>
+        <v>3.20818774358102E-08</v>
       </c>
       <c r="D5">
         <v>0.004837540466723977</v>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.293107877250351E-05</v>
       </c>
       <c r="D2">
         <v>0.0935546444768804</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.001593617288510033</v>
       </c>
       <c r="D3">
         <v>0.08157703873305805</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.001441307452903865</v>
       </c>
       <c r="D4">
         <v>0.0666710004121536</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.208187743581276E-08</v>
       </c>
       <c r="D5">
         <v>0.003685745117504278</v>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -604,7 +604,7 @@
         <v>4.950652275767183E-06</v>
       </c>
       <c r="C2">
-        <v>0.00022820374506862</v>
+        <v>0.004579608866817309</v>
       </c>
       <c r="D2">
         <v>0.8793986720099767</v>
@@ -621,7 +621,7 @@
         <v>3.366271645354549E-05</v>
       </c>
       <c r="C3">
-        <v>0.01295041722719747</v>
+        <v>0.0165215347783554</v>
       </c>
       <c r="D3">
         <v>0.6244773710396772</v>
@@ -638,7 +638,7 @@
         <v>9.983318368989137E-05</v>
       </c>
       <c r="C4">
-        <v>0.002830890116813284</v>
+        <v>0.004422467218723755</v>
       </c>
       <c r="D4">
         <v>0.529970235319557</v>
@@ -655,7 +655,7 @@
         <v>3.136226004447017E-05</v>
       </c>
       <c r="C5">
-        <v>0.002070717598057516</v>
+        <v>0.009696352394658603</v>
       </c>
       <c r="D5">
         <v>0.7611283048955221</v>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -699,7 +699,7 @@
         <v>8.265846938516411E-07</v>
       </c>
       <c r="C2">
-        <v>2.352433236158991E-05</v>
+        <v>0.0008625022536145861</v>
       </c>
       <c r="D2">
         <v>0.5346260883391039</v>
@@ -716,7 +716,7 @@
         <v>8.821213221951678E-07</v>
       </c>
       <c r="C3">
-        <v>0.0004775458214733943</v>
+        <v>0.002881815904253214</v>
       </c>
       <c r="D3">
         <v>0.2815615148947758</v>
@@ -733,7 +733,7 @@
         <v>5.652393175857317E-06</v>
       </c>
       <c r="C4">
-        <v>0.0001052097936530436</v>
+        <v>0.0008088721202676749</v>
       </c>
       <c r="D4">
         <v>0.2909574546975547</v>
@@ -750,7 +750,7 @@
         <v>3.035133465763993E-06</v>
       </c>
       <c r="C5">
-        <v>0.0001218230503195887</v>
+        <v>0.001027184489386547</v>
       </c>
       <c r="D5">
         <v>0.4983562152589935</v>

--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_target_price_Avg.xlsx
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.29310787725013E-05</v>
+        <v>3.293107877250131E-05</v>
       </c>
       <c r="D2">
         <v>0.1227904708758973</v>
       </c>
       <c r="E2">
-        <v>0.6024199871199125</v>
+        <v>0.602419987119913</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.950586604829724E-12</v>
+        <v>2.950586604829726E-12</v>
       </c>
       <c r="C3">
-        <v>0.001593617288509926</v>
+        <v>0.001593617288509927</v>
       </c>
       <c r="D3">
-        <v>0.1070698633371315</v>
+        <v>0.1070698633371316</v>
       </c>
       <c r="E3">
-        <v>0.5356579933675687</v>
+        <v>0.535657993367569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.6059516217121E-14</v>
+        <v>4.605951621712102E-14</v>
       </c>
       <c r="C4">
-        <v>0.001441307452903767</v>
+        <v>0.001441307452903768</v>
       </c>
       <c r="D4">
-        <v>0.08750568804094572</v>
+        <v>0.0875056880409458</v>
       </c>
       <c r="E4">
-        <v>0.4729977504715057</v>
+        <v>0.4729977504715059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.20818774358102E-08</v>
+        <v>3.208187743581022E-08</v>
       </c>
       <c r="D5">
-        <v>0.004837540466723977</v>
+        <v>0.004837540466723981</v>
       </c>
       <c r="E5">
-        <v>0.03949974846328618</v>
+        <v>0.03949974846328621</v>
       </c>
     </row>
   </sheetData>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.293107877250351E-05</v>
+        <v>3.293107877250354E-05</v>
       </c>
       <c r="D2">
-        <v>0.0935546444768804</v>
+        <v>0.09355464447688042</v>
       </c>
       <c r="E2">
         <v>0.6024199871199533</v>
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001593617288510033</v>
+        <v>0.001593617288510034</v>
       </c>
       <c r="D3">
-        <v>0.08157703873305805</v>
+        <v>0.08157703873305812</v>
       </c>
       <c r="E3">
-        <v>0.5356579933676044</v>
+        <v>0.535657993367605</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -546,10 +546,10 @@
         <v>0.001441307452903865</v>
       </c>
       <c r="D4">
-        <v>0.0666710004121536</v>
+        <v>0.06667100041215364</v>
       </c>
       <c r="E4">
-        <v>0.4729977504715375</v>
+        <v>0.4729977504715379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.208187743581276E-08</v>
+        <v>3.208187743581278E-08</v>
       </c>
       <c r="D5">
-        <v>0.003685745117504278</v>
+        <v>0.00368574511750428</v>
       </c>
       <c r="E5">
-        <v>0.03949974846328933</v>
+        <v>0.03949974846328937</v>
       </c>
     </row>
   </sheetData>
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.950652275767183E-06</v>
+        <v>4.950652275767181E-06</v>
       </c>
       <c r="C2">
-        <v>0.004579608866817309</v>
+        <v>0.00457960886681731</v>
       </c>
       <c r="D2">
-        <v>0.8793986720099767</v>
+        <v>0.8793986720099769</v>
       </c>
       <c r="E2">
         <v>1.005670182794794</v>
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.366271645354549E-05</v>
+        <v>3.36627164535455E-05</v>
       </c>
       <c r="C3">
-        <v>0.0165215347783554</v>
+        <v>0.01652153477835541</v>
       </c>
       <c r="D3">
-        <v>0.6244773710396772</v>
+        <v>0.6244773710396775</v>
       </c>
       <c r="E3">
-        <v>0.7722347246253324</v>
+        <v>0.7722347246253327</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -638,13 +638,13 @@
         <v>9.983318368989137E-05</v>
       </c>
       <c r="C4">
-        <v>0.004422467218723755</v>
+        <v>0.004422467218723752</v>
       </c>
       <c r="D4">
-        <v>0.529970235319557</v>
+        <v>0.5299702353195566</v>
       </c>
       <c r="E4">
-        <v>0.7777630714309917</v>
+        <v>0.7777630714309913</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -655,7 +655,7 @@
         <v>3.136226004447017E-05</v>
       </c>
       <c r="C5">
-        <v>0.009696352394658603</v>
+        <v>0.009696352394658599</v>
       </c>
       <c r="D5">
         <v>0.7611283048955221</v>
@@ -699,13 +699,13 @@
         <v>8.265846938516411E-07</v>
       </c>
       <c r="C2">
-        <v>0.0008625022536145861</v>
+        <v>0.0008625022536145866</v>
       </c>
       <c r="D2">
-        <v>0.5346260883391039</v>
+        <v>0.5346260883391041</v>
       </c>
       <c r="E2">
-        <v>1.291394054815722</v>
+        <v>1.291394054815723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.821213221951678E-07</v>
+        <v>8.821213221951682E-07</v>
       </c>
       <c r="C3">
-        <v>0.002881815904253214</v>
+        <v>0.002881815904253219</v>
       </c>
       <c r="D3">
-        <v>0.2815615148947758</v>
+        <v>0.281561514894776</v>
       </c>
       <c r="E3">
-        <v>0.7176330355746277</v>
+        <v>0.7176330355746283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.652393175857317E-06</v>
+        <v>5.652393175857315E-06</v>
       </c>
       <c r="C4">
         <v>0.0008088721202676749</v>
       </c>
       <c r="D4">
-        <v>0.2909574546975547</v>
+        <v>0.2909574546975546</v>
       </c>
       <c r="E4">
-        <v>0.9009158583166949</v>
+        <v>0.9009158583166944</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.035133465763993E-06</v>
+        <v>3.03513346576399E-06</v>
       </c>
       <c r="C5">
         <v>0.001027184489386547</v>
       </c>
       <c r="D5">
-        <v>0.4983562152589935</v>
+        <v>0.4983562152589934</v>
       </c>
       <c r="E5">
-        <v>1.071366379498882</v>
+        <v>1.071366379498881</v>
       </c>
     </row>
   </sheetData>
